--- a/AlcoholPython.xlsx
+++ b/AlcoholPython.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MY FILES\Java\aText\python-package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MY FILES\Java\aText\python-package\package\aText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C0918A-F0C2-4779-A9B5-2FA2DA3FF2B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504AA2E5-EB2D-41E2-8868-149F3EF7ADDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8724" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1260" windowWidth="17280" windowHeight="8724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Training" sheetId="1" r:id="rId1"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B6CDAC-DC1E-440F-A357-3F2C66A47A8D}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
